--- a/dataviz/df_book_updated.xlsx
+++ b/dataviz/df_book_updated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>categorie</t>
+          <t>Catégorie</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>First published date</t>
+          <t>Année publication</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Date dernière ouverture</t>
+          <t>Date de lecture</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>total Nbr de pages lues</t>
+          <t># pages lues</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>pourcent_lu</t>
+          <t>% lu</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -525,17 +525,17 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>intervalle_lecture_en_jour</t>
+          <t>Durée lecture (j)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>nb_dates_lecture_distinctes</t>
+          <t>jours de lecture effectifs (jl)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>nb_pages_lues_par_jour_de_lecture</t>
+          <t># pages lues/jl</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>minutes_lecture_par_jour_de_lecture</t>
+          <t>minutes de lecture/jl</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -576,31 +576,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
+          <t>ERROR: Error reading EPUB format</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -611,91 +611,91 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale - Brandon Sanderson</t>
+          <t>ERROR: Error reading EPUB format - N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45602</v>
+        <v>45623</v>
       </c>
       <c r="L2" t="n">
-        <v>636</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6654492330168</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="O2" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>4107</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>68.45</v>
+        <v>0.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.8</v>
+        <v>0.2</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0:22</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1:08:27</t>
+          <t>0:00:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Voyageur 4 : La Galaxie vue du sol</t>
+          <t>Défaillances systèmes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -710,101 +710,101 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Murderbot Diaries </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Voyageur 4 : La Galaxie vue du sol - Becky Chambers</t>
+          <t>Défaillances systèmes - Martha Wells</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45600</v>
+        <v>45623</v>
       </c>
       <c r="L3" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="M3" t="n">
-        <v>382</v>
+        <v>171</v>
       </c>
       <c r="N3" t="n">
-        <v>1.299452325067184</v>
+        <v>1.350177654954599</v>
       </c>
       <c r="O3" t="n">
         <v>100</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>63.7</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>17638</v>
+        <v>7599</v>
       </c>
       <c r="V3" t="n">
-        <v>293.97</v>
+        <v>126.65</v>
       </c>
       <c r="W3" t="n">
-        <v>4.9</v>
+        <v>2.11</v>
       </c>
       <c r="X3" t="n">
-        <v>0.82</v>
+        <v>0.53</v>
       </c>
       <c r="Y3" t="n">
-        <v>49</v>
+        <v>31.7</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>4:53:58</t>
+          <t>2:06:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
+          <t>Minimalisme numérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -814,106 +814,102 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey - Michael McDowell</t>
+          <t>Minimalisme numérique - Cal Newport</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45598</v>
+        <v>45620</v>
       </c>
       <c r="L4" t="n">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
-        <v>1.741624116947611</v>
+        <v>2.485875706214689</v>
       </c>
       <c r="O4" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>41.5</v>
+        <v>22</v>
       </c>
       <c r="U4" t="n">
-        <v>8578</v>
+        <v>531</v>
       </c>
       <c r="V4" t="n">
-        <v>142.97</v>
+        <v>8.85</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>0.15</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0:24</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2:22:58</t>
+          <t>0:08:51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Voyageur 3 : Archives de l'exode</t>
+          <t>Tehanu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -923,74 +919,74 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Terremer </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Voyageur 3 : Archives de l'exode - Becky Chambers</t>
+          <t>Tehanu - Ursula Le Guin</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45588</v>
+        <v>45620</v>
       </c>
       <c r="L5" t="n">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="M5" t="n">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="N5" t="n">
-        <v>1.137772984631976</v>
+        <v>1.214333345032113</v>
       </c>
       <c r="O5" t="n">
         <v>100</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T5" t="n">
-        <v>32.5</v>
+        <v>34.6</v>
       </c>
       <c r="U5" t="n">
-        <v>22254</v>
+        <v>17096</v>
       </c>
       <c r="V5" t="n">
-        <v>370.9</v>
+        <v>284.93</v>
       </c>
       <c r="W5" t="n">
-        <v>6.18</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="Y5" t="n">
         <v>28.5</v>
@@ -1002,27 +998,27 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>6:10:54</t>
+          <t>4:44:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 4 : La Galaxie vue du sol</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1032,106 +1028,106 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey - Michael McDowell</t>
+          <t>Voyageur 4 : La Galaxie vue du sol - Becky Chambers</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45573</v>
+        <v>45620</v>
       </c>
       <c r="L6" t="n">
-        <v>213</v>
+        <v>400</v>
       </c>
       <c r="M6" t="n">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="N6" t="n">
-        <v>1.441870231679149</v>
+        <v>1.298745452690987</v>
       </c>
       <c r="O6" t="n">
         <v>100</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
-        <v>41.2</v>
+        <v>54.6</v>
       </c>
       <c r="U6" t="n">
-        <v>8572</v>
+        <v>17648</v>
       </c>
       <c r="V6" t="n">
-        <v>142.87</v>
+        <v>294.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>4.9</v>
       </c>
       <c r="X6" t="n">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.6</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2:22:52</t>
+          <t>4:54:08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration</t>
+          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1141,106 +1137,102 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration - Becky Chambers</t>
+          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale - Brandon Sanderson</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45568</v>
+        <v>45608</v>
       </c>
       <c r="L7" t="n">
-        <v>504</v>
+        <v>636</v>
       </c>
       <c r="M7" t="n">
-        <v>487</v>
+        <v>572</v>
       </c>
       <c r="N7" t="n">
-        <v>1.382540809084457</v>
+        <v>1.706953148313936</v>
       </c>
       <c r="O7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T7" t="n">
-        <v>97.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21135</v>
+        <v>20106</v>
       </c>
       <c r="V7" t="n">
-        <v>352.25</v>
+        <v>335.1</v>
       </c>
       <c r="W7" t="n">
-        <v>5.87</v>
+        <v>5.58</v>
       </c>
       <c r="X7" t="n">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.40000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1:10</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>5:52:15</t>
+          <t>5:35:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an</t>
+          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1250,96 +1242,96 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an - Becky Chambers</t>
+          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey - Michael McDowell</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45564</v>
+        <v>45598</v>
       </c>
       <c r="L8" t="n">
-        <v>789</v>
+        <v>257</v>
       </c>
       <c r="M8" t="n">
-        <v>779</v>
+        <v>249</v>
       </c>
       <c r="N8" t="n">
-        <v>1.735933147632312</v>
+        <v>1.741624116947611</v>
       </c>
       <c r="O8" t="n">
         <v>100</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>129.8</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>26925</v>
+        <v>8578</v>
       </c>
       <c r="V8" t="n">
-        <v>448.75</v>
+        <v>142.97</v>
       </c>
       <c r="W8" t="n">
-        <v>7.48</v>
+        <v>2.38</v>
       </c>
       <c r="X8" t="n">
-        <v>1.25</v>
+        <v>0.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.8</v>
+        <v>23.8</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>0:24</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>7:28:45</t>
+          <t>2:22:58</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
+          <t>Voyageur 3 : Archives de l'exode</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1364,101 +1356,101 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoires de moine et de robot </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides - Becky Chambers</t>
+          <t>Voyageur 3 : Archives de l'exode - Becky Chambers</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45558</v>
+        <v>45588</v>
       </c>
       <c r="L9" t="n">
-        <v>139</v>
+        <v>441</v>
       </c>
       <c r="M9" t="n">
-        <v>135</v>
+        <v>422</v>
       </c>
       <c r="N9" t="n">
-        <v>1.399688958009331</v>
+        <v>1.137772984631976</v>
       </c>
       <c r="O9" t="n">
         <v>100</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T9" t="n">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="U9" t="n">
-        <v>5787</v>
+        <v>22254</v>
       </c>
       <c r="V9" t="n">
-        <v>96.45</v>
+        <v>370.9</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>6.18</v>
       </c>
       <c r="X9" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.3</v>
+        <v>28.5</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0:19</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>1:36:27</t>
+          <t>6:10:54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1468,117 +1460,121 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues - John Connolly</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey - Michael McDowell</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45544</v>
+        <v>45573</v>
       </c>
       <c r="L10" t="n">
-        <v>480</v>
+        <v>213</v>
       </c>
       <c r="M10" t="n">
-        <v>467</v>
+        <v>206</v>
       </c>
       <c r="N10" t="n">
-        <v>1.313901471457108</v>
+        <v>1.441870231679149</v>
       </c>
       <c r="O10" t="n">
         <v>100</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>29.2</v>
+        <v>41.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21326</v>
+        <v>8572</v>
       </c>
       <c r="V10" t="n">
-        <v>355.43</v>
+        <v>142.87</v>
       </c>
       <c r="W10" t="n">
-        <v>5.92</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.2</v>
+        <v>28.6</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0:22</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>5:55:26</t>
+          <t>2:22:52</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue</t>
+          <t>Voyageur 2 : Libration</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1588,91 +1584,91 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue - Michael McDowell</t>
+          <t>Voyageur 2 : Libration - Becky Chambers</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45524</v>
+        <v>45568</v>
       </c>
       <c r="L11" t="n">
-        <v>225</v>
+        <v>504</v>
       </c>
       <c r="M11" t="n">
-        <v>208</v>
+        <v>487</v>
       </c>
       <c r="N11" t="n">
-        <v>1.319629488643573</v>
+        <v>1.382540809084457</v>
       </c>
       <c r="O11" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>41.6</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>9457</v>
+        <v>21135</v>
       </c>
       <c r="V11" t="n">
-        <v>157.62</v>
+        <v>352.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.63</v>
+        <v>5.87</v>
       </c>
       <c r="X11" t="n">
-        <v>0.53</v>
+        <v>1.17</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>1:10</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2:37:37</t>
+          <t>5:52:15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 1 : L'Espace d'un an</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1682,12 +1678,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1697,96 +1693,96 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey - Michael McDowell</t>
+          <t>Voyageur 1 : L'Espace d'un an - Becky Chambers</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45522</v>
+        <v>45564</v>
       </c>
       <c r="L12" t="n">
-        <v>248</v>
+        <v>789</v>
       </c>
       <c r="M12" t="n">
-        <v>234</v>
+        <v>779</v>
       </c>
       <c r="N12" t="n">
-        <v>1.451432824711574</v>
+        <v>1.735933147632312</v>
       </c>
       <c r="O12" t="n">
         <v>100</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>58.5</v>
+        <v>129.8</v>
       </c>
       <c r="U12" t="n">
-        <v>9673</v>
+        <v>26925</v>
       </c>
       <c r="V12" t="n">
-        <v>161.22</v>
+        <v>448.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.69</v>
+        <v>7.48</v>
       </c>
       <c r="X12" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>40.3</v>
+        <v>74.8</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>1:15</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2:41:13</t>
+          <t>7:28:45</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>James S. A. Corey</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>James Corey</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1796,111 +1792,111 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Expanse </t>
+          <t xml:space="preserve">Histoires de moine et de robot </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1 - James S. A. Corey</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides - Becky Chambers</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45515</v>
+        <v>45558</v>
       </c>
       <c r="L13" t="n">
-        <v>823</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>815</v>
+        <v>135</v>
       </c>
       <c r="N13" t="n">
-        <v>1.091352205468813</v>
+        <v>1.399688958009331</v>
       </c>
       <c r="O13" t="n">
         <v>100</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="R13" t="n">
         <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>101.9</v>
+        <v>27</v>
       </c>
       <c r="U13" t="n">
-        <v>44807</v>
+        <v>5787</v>
       </c>
       <c r="V13" t="n">
-        <v>746.78</v>
+        <v>96.45</v>
       </c>
       <c r="W13" t="n">
-        <v>12.45</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
-        <v>1.56</v>
+        <v>0.32</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.3</v>
+        <v>19.3</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:19</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>12:26:47</t>
+          <t>1:36:27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
+          <t>Le livre des choses perdues</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1911,96 +1907,96 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones - James Clear</t>
+          <t>Le livre des choses perdues - John Connolly</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45512</v>
+        <v>45544</v>
       </c>
       <c r="L14" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>467</v>
       </c>
       <c r="N14" t="n">
-        <v>4.45859872611465</v>
+        <v>1.313901471457108</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>29.2</v>
       </c>
       <c r="U14" t="n">
-        <v>94</v>
+        <v>21326</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>355.43</v>
       </c>
       <c r="W14" t="n">
-        <v>0.03</v>
+        <v>5.92</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01</v>
+        <v>0.37</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8</v>
+        <v>22.2</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:22</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>5:55:26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
+          <t>Blackwater 2 - La digue</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>it</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2010,97 +2006,101 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants - J. K. Rowling</t>
+          <t>Blackwater 2 - La digue - Michael McDowell</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45507</v>
+        <v>45524</v>
       </c>
       <c r="L15" t="n">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="N15" t="n">
-        <v>1.111111111111111</v>
+        <v>1.319629488643573</v>
       </c>
       <c r="O15" t="n">
+        <v>92</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>7</v>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2024-08-03</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>216</v>
+        <v>9457</v>
       </c>
       <c r="V15" t="n">
-        <v>3.6</v>
+        <v>157.62</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06</v>
+        <v>2.63</v>
       </c>
       <c r="X15" t="n">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.8</v>
+        <v>31.5</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>2:37:37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian</t>
+          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Emily St.John Mandel</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2115,212 +2115,220 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian - Emily St.John Mandel</t>
+          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey - Michael McDowell</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45506</v>
+        <v>45522</v>
       </c>
       <c r="L16" t="n">
-        <v>471</v>
+        <v>248</v>
       </c>
       <c r="M16" t="n">
-        <v>458</v>
+        <v>234</v>
       </c>
       <c r="N16" t="n">
-        <v>1.700200460316282</v>
+        <v>1.451432824711574</v>
       </c>
       <c r="O16" t="n">
         <v>100</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>114.5</v>
+        <v>58.5</v>
       </c>
       <c r="U16" t="n">
-        <v>16163</v>
+        <v>9673</v>
       </c>
       <c r="V16" t="n">
-        <v>269.38</v>
+        <v>161.22</v>
       </c>
       <c r="W16" t="n">
-        <v>4.49</v>
+        <v>2.69</v>
       </c>
       <c r="X16" t="n">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.3</v>
+        <v>40.3</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>4:29:23</t>
+          <t>2:41:13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
+          <t>Leviathan Wakes - the expanse 1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>James S. A. Corey</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>James Corey</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t xml:space="preserve">The Expanse </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars - Brandon Sanderson</t>
+          <t>Leviathan Wakes - the expanse 1 - James S. A. Corey</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45502</v>
+        <v>45515</v>
       </c>
       <c r="L17" t="n">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="M17" t="n">
-        <v>768</v>
+        <v>815</v>
       </c>
       <c r="N17" t="n">
-        <v>1.756552765198298</v>
+        <v>1.091352205468813</v>
       </c>
       <c r="O17" t="n">
         <v>100</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2012-05-01</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4473</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>69.8</v>
+        <v>101.9</v>
       </c>
       <c r="U17" t="n">
-        <v>26233</v>
+        <v>44807</v>
       </c>
       <c r="V17" t="n">
-        <v>437.22</v>
+        <v>746.78</v>
       </c>
       <c r="W17" t="n">
-        <v>7.29</v>
+        <v>12.45</v>
       </c>
       <c r="X17" t="n">
-        <v>0.66</v>
+        <v>1.56</v>
       </c>
       <c r="Y17" t="n">
-        <v>39.7</v>
+        <v>93.3</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0:39</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>7:17:13</t>
+          <t>12:26:47</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Légendes et lattes</t>
+          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2331,165 +2339,161 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Légendes et lattes - Travis Baldree</t>
+          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones - James Clear</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45491</v>
+        <v>45512</v>
       </c>
       <c r="L18" t="n">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="M18" t="n">
-        <v>387</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>1.372437761543372</v>
+        <v>4.45859872611465</v>
       </c>
       <c r="O18" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2012-05-01</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4462</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>35.2</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>16919</v>
+        <v>94</v>
       </c>
       <c r="V18" t="n">
-        <v>281.98</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
-        <v>4.7</v>
+        <v>0.03</v>
       </c>
       <c r="X18" t="n">
-        <v>0.43</v>
+        <v>0.01</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0:25</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>4:41:59</t>
+          <t>0:01:34</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu - Ursula Le Guin</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants - J. K. Rowling</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45480</v>
+        <v>45507</v>
       </c>
       <c r="L19" t="n">
-        <v>351</v>
+        <v>59</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5555555555555556</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="X19" t="n">
         <v>0.03</v>
@@ -2504,22 +2508,22 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:03:36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>Les Variations Sebastian</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Emily St.John Mandel</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2534,7 +2538,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2545,101 +2549,101 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité - Emily St. John Mandel</t>
+          <t>Les Variations Sebastian - Emily St.John Mandel</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45480</v>
+        <v>45506</v>
       </c>
       <c r="L20" t="n">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="M20" t="n">
-        <v>325</v>
+        <v>458</v>
       </c>
       <c r="N20" t="n">
-        <v>1.708278580814717</v>
+        <v>1.700200460316282</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>46.4</v>
+        <v>114.5</v>
       </c>
       <c r="U20" t="n">
-        <v>11415</v>
+        <v>16163</v>
       </c>
       <c r="V20" t="n">
-        <v>190.25</v>
+        <v>269.38</v>
       </c>
       <c r="W20" t="n">
-        <v>3.17</v>
+        <v>4.49</v>
       </c>
       <c r="X20" t="n">
-        <v>0.45</v>
+        <v>1.12</v>
       </c>
       <c r="Y20" t="n">
-        <v>27.2</v>
+        <v>67.3</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>3:10:15</t>
+          <t>4:29:23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alan E. Kazdin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alan Kazdin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2650,91 +2654,91 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit - Alan E. Kazdin</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars - Brandon Sanderson</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45473</v>
+        <v>45502</v>
       </c>
       <c r="L21" t="n">
-        <v>390</v>
+        <v>798</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>768</v>
       </c>
       <c r="N21" t="n">
-        <v>3.252032520325203</v>
+        <v>1.756552765198298</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2012-05-01</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>4473</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>69.8</v>
       </c>
       <c r="U21" t="n">
-        <v>74</v>
+        <v>26233</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>437.22</v>
       </c>
       <c r="W21" t="n">
-        <v>0.02</v>
+        <v>7.29</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02</v>
+        <v>0.66</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.2</v>
+        <v>39.7</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:39</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>7:17:13</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L'hôtel de verre</t>
+          <t>Légendes et lattes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2744,7 +2748,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2755,91 +2759,91 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>L'hôtel de verre - Emily St. John Mandel</t>
+          <t>Légendes et lattes - Travis Baldree</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45472</v>
+        <v>45491</v>
       </c>
       <c r="L22" t="n">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="M22" t="n">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="N22" t="n">
-        <v>1.493562231759657</v>
+        <v>1.372437761543372</v>
       </c>
       <c r="O22" t="n">
         <v>100</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2012-05-01</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>4462</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T22" t="n">
-        <v>72.5</v>
+        <v>35.2</v>
       </c>
       <c r="U22" t="n">
-        <v>17475</v>
+        <v>16919</v>
       </c>
       <c r="V22" t="n">
-        <v>291.25</v>
+        <v>281.98</v>
       </c>
       <c r="W22" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.5</v>
+        <v>25.6</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:25</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>4:51:15</t>
+          <t>4:41:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Récursion</t>
+          <t>Terremer 2 Tehanu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2849,48 +2853,52 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Récursion - Blake Crouch</t>
+          <t>Terremer 2 Tehanu - Ursula Le Guin</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45464</v>
+        <v>45480</v>
       </c>
       <c r="L23" t="n">
-        <v>523</v>
+        <v>351</v>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.73370319001387</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="R23" t="n">
@@ -2900,51 +2908,51 @@
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>865</v>
+        <v>108</v>
       </c>
       <c r="V23" t="n">
-        <v>14.42</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="X23" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>0:14</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0:14:25</t>
+          <t>0:01:48</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2965,102 +2973,101 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages - Becky Chambers</t>
+          <t>La mer de la tranquillité - Emily St. John Mandel</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45463</v>
+        <v>45480</v>
       </c>
       <c r="L24" t="n">
-        <v>157</v>
+        <v>342</v>
       </c>
       <c r="M24" t="n">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="N24" t="n">
-        <v>1.257189811010682</v>
+        <v>1.708278580814717</v>
       </c>
       <c r="O24" t="n">
         <v>100</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T24" t="n">
-        <v>51</v>
+        <v>46.4</v>
       </c>
       <c r="U24" t="n">
-        <v>7302</v>
+        <v>11415</v>
       </c>
       <c r="V24" t="n">
-        <v>121.7</v>
+        <v>190.25</v>
       </c>
       <c r="W24" t="n">
-        <v>2.03</v>
+        <v>3.17</v>
       </c>
       <c r="X24" t="n">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="Y24" t="n">
-        <v>40.6</v>
+        <v>27.2</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>3:10:15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps</t>
+          <t>The Everyday Parenting Toolkit</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar
-Max Gladstone</t>
+          <t>Alan E. Kazdin</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar</t>
+          <t>Alan Kazdin</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3071,92 +3078,91 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps - Amal El-Mohtar
-Max Gladstone</t>
+          <t>The Everyday Parenting Toolkit - Alan E. Kazdin</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="L25" t="n">
-        <v>277</v>
+        <v>390</v>
       </c>
       <c r="M25" t="n">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.654949293846824</v>
+        <v>3.252032520325203</v>
       </c>
       <c r="O25" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>44.3</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
-        <v>9644</v>
+        <v>74</v>
       </c>
       <c r="V25" t="n">
-        <v>160.73</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.68</v>
+        <v>0.02</v>
       </c>
       <c r="X25" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2:40:44</t>
+          <t>0:01:14</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres</t>
+          <t>L'hôtel de verre</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3166,116 +3172,112 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres - Glen Cook</t>
+          <t>L'hôtel de verre - Emily St. John Mandel</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45454</v>
+        <v>45472</v>
       </c>
       <c r="L26" t="n">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>435</v>
       </c>
       <c r="N26" t="n">
-        <v>1.573033707865168</v>
+        <v>1.493562231759657</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T26" t="n">
-        <v>3.5</v>
+        <v>72.5</v>
       </c>
       <c r="U26" t="n">
-        <v>267</v>
+        <v>17475</v>
       </c>
       <c r="V26" t="n">
-        <v>4.45</v>
+        <v>291.25</v>
       </c>
       <c r="W26" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.85</v>
       </c>
       <c r="X26" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.2</v>
+        <v>48.5</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0:02</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>4:51:15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux</t>
+          <t>Récursion</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3286,91 +3288,91 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux - J. K. Rowling</t>
+          <t>Récursion - Blake Crouch</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="L27" t="n">
-        <v>58</v>
+        <v>523</v>
       </c>
       <c r="M27" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>1.093155893536122</v>
+        <v>1.73370319001387</v>
       </c>
       <c r="O27" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="U27" t="n">
-        <v>2525</v>
+        <v>865</v>
       </c>
       <c r="V27" t="n">
-        <v>42.08</v>
+        <v>14.42</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="X27" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>14.4</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:14</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0:42:05</t>
+          <t>0:14:25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre</t>
+          <t>Un psaume pour les recyclés sauvages</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3391,7 +3393,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre - Brandon Sanderson</t>
+          <t>Un psaume pour les recyclés sauvages - Becky Chambers</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3400,82 +3402,83 @@
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45453</v>
+        <v>45463</v>
       </c>
       <c r="L28" t="n">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="M28" t="n">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="N28" t="n">
-        <v>1.528994965504382</v>
+        <v>1.257189811010682</v>
       </c>
       <c r="O28" t="n">
         <v>100</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="U28" t="n">
-        <v>3218</v>
+        <v>7302</v>
       </c>
       <c r="V28" t="n">
-        <v>53.63</v>
+        <v>121.7</v>
       </c>
       <c r="W28" t="n">
-        <v>0.89</v>
+        <v>2.03</v>
       </c>
       <c r="X28" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.6</v>
+        <v>40.6</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>0:53</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0:53:38</t>
+          <t>2:01:42</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Janua Vera</t>
+          <t>Les Oiseaux du Temps</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Amal El-Mohtar
+Max Gladstone</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Amal El-Mohtar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3485,211 +3488,212 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récits du Vieux Royaume </t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Janua Vera - Jean-Philippe Jaworski</t>
+          <t>Les Oiseaux du Temps - Amal El-Mohtar
+Max Gladstone</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="L29" t="n">
-        <v>744</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="N29" t="n">
-        <v>1.085951940850277</v>
+        <v>1.654949293846824</v>
       </c>
       <c r="O29" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="R29" t="n">
         <v>6</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T29" t="n">
-        <v>11.8</v>
+        <v>44.3</v>
       </c>
       <c r="U29" t="n">
-        <v>2597</v>
+        <v>9644</v>
       </c>
       <c r="V29" t="n">
-        <v>43.28</v>
+        <v>160.73</v>
       </c>
       <c r="W29" t="n">
-        <v>0.72</v>
+        <v>2.68</v>
       </c>
       <c r="X29" t="n">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.8</v>
+        <v>26.8</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0:43:17</t>
+          <t>2:40:44</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
+          <t>CN4 Jeux d'ombres</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Michael Joseph Ferguson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Michael Joseph</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD - Michael Joseph Ferguson</t>
+          <t>CN4 Jeux d'ombres - Glen Cook</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="L30" t="n">
-        <v>819</v>
+        <v>542</v>
       </c>
       <c r="M30" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N30" t="n">
-        <v>1.223021582733813</v>
+        <v>1.573033707865168</v>
       </c>
       <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>2</v>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2024-06-07</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>93</v>
-      </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>834</v>
+        <v>267</v>
       </c>
       <c r="V30" t="n">
-        <v>13.9</v>
+        <v>4.45</v>
       </c>
       <c r="W30" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:02</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:04:27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Station Eleven</t>
+          <t>Skyward 0.5 - Un paradis à défendre</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3710,101 +3714,101 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Station Eleven - Emily St. John Mandel</t>
+          <t>Skyward 0.5 - Un paradis à défendre - Brandon Sanderson</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45445</v>
+        <v>45453</v>
       </c>
       <c r="L31" t="n">
-        <v>568</v>
+        <v>86</v>
       </c>
       <c r="M31" t="n">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="N31" t="n">
-        <v>1.705557117421048</v>
+        <v>1.528994965504382</v>
       </c>
       <c r="O31" t="n">
         <v>100</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U31" t="n">
-        <v>19208</v>
+        <v>3218</v>
       </c>
       <c r="V31" t="n">
-        <v>320.13</v>
+        <v>53.63</v>
       </c>
       <c r="W31" t="n">
-        <v>5.34</v>
+        <v>0.89</v>
       </c>
       <c r="X31" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.7</v>
+        <v>53.6</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>0:53</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>5:20:08</t>
+          <t>0:53:38</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A Princess of Mars</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Edgar Rice Burroughs</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Edgar Rice</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3815,91 +3819,91 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A Princess of Mars - Edgar Rice Burroughs</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux - J. K. Rowling</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="L32" t="n">
-        <v>557</v>
+        <v>58</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N32" t="n">
-        <v>12.5</v>
+        <v>1.093155893536122</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>2525</v>
       </c>
       <c r="V32" t="n">
-        <v>0.08</v>
+        <v>42.08</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>0:42:05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon</t>
+          <t>Janua Vera</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3909,112 +3913,116 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t xml:space="preserve">Récits du Vieux Royaume </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon - Daniel Keyes</t>
+          <t>Janua Vera - Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45439</v>
+        <v>45450</v>
       </c>
       <c r="L33" t="n">
-        <v>456</v>
+        <v>744</v>
       </c>
       <c r="M33" t="n">
-        <v>447</v>
+        <v>47</v>
       </c>
       <c r="N33" t="n">
-        <v>1.679945880938064</v>
+        <v>1.085951940850277</v>
       </c>
       <c r="O33" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>149</v>
+        <v>11.8</v>
       </c>
       <c r="U33" t="n">
-        <v>15965</v>
+        <v>2597</v>
       </c>
       <c r="V33" t="n">
-        <v>266.08</v>
+        <v>43.28</v>
       </c>
       <c r="W33" t="n">
-        <v>4.43</v>
+        <v>0.72</v>
       </c>
       <c r="X33" t="n">
-        <v>1.48</v>
+        <v>0.18</v>
       </c>
       <c r="Y33" t="n">
-        <v>88.7</v>
+        <v>10.8</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>4:26:05</t>
+          <t>0:43:17</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique</t>
+          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Michael Joseph Ferguson</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Michael Joseph</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4025,96 +4033,96 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique - Brandon Sanderson</t>
+          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD - Michael Joseph Ferguson</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45436</v>
+        <v>45450</v>
       </c>
       <c r="L34" t="n">
-        <v>766</v>
+        <v>819</v>
       </c>
       <c r="M34" t="n">
-        <v>741</v>
+        <v>17</v>
       </c>
       <c r="N34" t="n">
-        <v>1.676660255685032</v>
+        <v>1.223021582733813</v>
       </c>
       <c r="O34" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="S34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>82.3</v>
+        <v>5.7</v>
       </c>
       <c r="U34" t="n">
-        <v>26517</v>
+        <v>834</v>
       </c>
       <c r="V34" t="n">
-        <v>441.95</v>
+        <v>13.9</v>
       </c>
       <c r="W34" t="n">
-        <v>7.37</v>
+        <v>0.23</v>
       </c>
       <c r="X34" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.1</v>
+        <v>4.6</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>0:04</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>7:21:57</t>
+          <t>0:13:54</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Trois corps – 01 – Le problème à trois corps</t>
+          <t>Station Eleven</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4124,106 +4132,102 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trois corps </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Trois corps – 01 – Le problème à trois corps - Liu Cixin</t>
+          <t>Station Eleven - Emily St. John Mandel</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45427</v>
+        <v>45445</v>
       </c>
       <c r="L35" t="n">
-        <v>745</v>
+        <v>568</v>
       </c>
       <c r="M35" t="n">
-        <v>708</v>
+        <v>546</v>
       </c>
       <c r="N35" t="n">
-        <v>1.387636705734781</v>
+        <v>1.705557117421048</v>
       </c>
       <c r="O35" t="n">
         <v>100</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S35" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T35" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="U35" t="n">
-        <v>30613</v>
+        <v>19208</v>
       </c>
       <c r="V35" t="n">
-        <v>510.22</v>
+        <v>320.13</v>
       </c>
       <c r="W35" t="n">
-        <v>8.5</v>
+        <v>5.34</v>
       </c>
       <c r="X35" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="Y35" t="n">
-        <v>42.5</v>
+        <v>45.7</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>8:30:13</t>
+          <t>5:20:08</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Le Chasch</t>
+          <t>A Princess of Mars</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vance,Jack</t>
+          <t>Edgar Rice Burroughs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vance Jack</t>
+          <t>Edgar Rice</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4233,102 +4237,97 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cycle de Tschaï </t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Le Chasch - Vance,Jack</t>
+          <t>A Princess of Mars - Edgar Rice Burroughs</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="L36" t="n">
-        <v>266</v>
+        <v>557</v>
       </c>
       <c r="M36" t="n">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>1.134133042529989</v>
+        <v>12.5</v>
       </c>
       <c r="O36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>43.3</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>13755</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>229.25</v>
+        <v>0.08</v>
       </c>
       <c r="W36" t="n">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>38.2</v>
+        <v>0.1</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>0:38</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>3:49:15</t>
+          <t>0:00:05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Titus d'enfer</t>
+          <t>Des fleurs pour Algernon</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mervyn Peake
-Patrick Reumaux</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mervyn Peake</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4338,107 +4337,102 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gormenghast </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Titus d'enfer - Mervyn Peake
-Patrick Reumaux</t>
+          <t>Des fleurs pour Algernon - Daniel Keyes</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45410</v>
+        <v>45439</v>
       </c>
       <c r="L37" t="n">
-        <v>883</v>
+        <v>456</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="N37" t="n">
-        <v>4.347826086956522</v>
+        <v>1.679945880938064</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="U37" t="n">
-        <v>14</v>
+        <v>15965</v>
       </c>
       <c r="V37" t="n">
-        <v>0.23</v>
+        <v>266.08</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2</v>
+        <v>88.7</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>1:28</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0:00:14</t>
+          <t>4:26:05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Marche ou crève</t>
+          <t>Skyward T3 : Cytonique</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>King,Stephen</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>King Stephen</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4459,201 +4453,205 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Marche ou crève - King,Stephen</t>
+          <t>Skyward T3 : Cytonique - Brandon Sanderson</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45410</v>
+        <v>45436</v>
       </c>
       <c r="L38" t="n">
-        <v>429</v>
+        <v>766</v>
       </c>
       <c r="M38" t="n">
-        <v>419</v>
+        <v>741</v>
       </c>
       <c r="N38" t="n">
-        <v>1.397971440010676</v>
+        <v>1.676660255685032</v>
       </c>
       <c r="O38" t="n">
         <v>100</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T38" t="n">
-        <v>59.9</v>
+        <v>82.3</v>
       </c>
       <c r="U38" t="n">
-        <v>17983</v>
+        <v>26517</v>
       </c>
       <c r="V38" t="n">
-        <v>299.72</v>
+        <v>441.95</v>
       </c>
       <c r="W38" t="n">
-        <v>5</v>
+        <v>7.37</v>
       </c>
       <c r="X38" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.8</v>
+        <v>49.1</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>4:59:43</t>
+          <t>7:21:57</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>L'Enchanteur</t>
+          <t>Trois corps – 01 – Le problème à trois corps</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Barjavel, René</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t xml:space="preserve">Trois corps </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>L'Enchanteur - Barjavel, René</t>
+          <t>Trois corps – 01 – Le problème à trois corps - Liu Cixin</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45404</v>
+        <v>45427</v>
       </c>
       <c r="L39" t="n">
-        <v>572</v>
+        <v>745</v>
       </c>
       <c r="M39" t="n">
-        <v>484</v>
+        <v>708</v>
       </c>
       <c r="N39" t="n">
-        <v>1.27890077949531</v>
+        <v>1.387636705734781</v>
       </c>
       <c r="O39" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T39" t="n">
-        <v>37.2</v>
+        <v>59</v>
       </c>
       <c r="U39" t="n">
-        <v>22707</v>
+        <v>30613</v>
       </c>
       <c r="V39" t="n">
-        <v>378.45</v>
+        <v>510.22</v>
       </c>
       <c r="W39" t="n">
-        <v>6.31</v>
+        <v>8.5</v>
       </c>
       <c r="X39" t="n">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.1</v>
+        <v>42.5</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>0:29</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>6:18:27</t>
+          <t>8:30:13</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dans la toile du temps</t>
+          <t>Le Chasch</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Vance,Jack</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Vance Jack</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4663,97 +4661,102 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t xml:space="preserve">Cycle de Tschaï </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Dans la toile du temps - Adrian Tchaikovsky</t>
+          <t>Le Chasch - Vance,Jack</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45390</v>
+        <v>45415</v>
       </c>
       <c r="L40" t="n">
-        <v>888</v>
+        <v>266</v>
       </c>
       <c r="M40" t="n">
-        <v>870</v>
+        <v>260</v>
       </c>
       <c r="N40" t="n">
-        <v>1.400244640442928</v>
+        <v>1.134133042529989</v>
       </c>
       <c r="O40" t="n">
         <v>100</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="S40" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="T40" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U40" t="n">
-        <v>37279</v>
+        <v>13755</v>
       </c>
       <c r="V40" t="n">
-        <v>621.3200000000001</v>
+        <v>229.25</v>
       </c>
       <c r="W40" t="n">
-        <v>10.36</v>
+        <v>3.82</v>
       </c>
       <c r="X40" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.1</v>
+        <v>38.2</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:38</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>10:21:19</t>
+          <t>3:49:15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>la route</t>
+          <t>Titus d'enfer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Mervyn Peake
+Patrick Reumaux</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Mervyn Peake</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4763,102 +4766,107 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t xml:space="preserve">Gormenghast </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>la route - Cormac McCarthy</t>
+          <t>Titus d'enfer - Mervyn Peake
+Patrick Reumaux</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45370</v>
+        <v>45410</v>
       </c>
       <c r="L41" t="n">
-        <v>385</v>
+        <v>883</v>
       </c>
       <c r="M41" t="n">
-        <v>383</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.044083898169398</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="O41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>191.5</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>11242</v>
+        <v>14</v>
       </c>
       <c r="V41" t="n">
-        <v>187.37</v>
+        <v>0.23</v>
       </c>
       <c r="W41" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.7</v>
+        <v>0.2</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>3:07:22</t>
+          <t>0:00:14</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ravage</t>
+          <t>Marche ou crève</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>King,Stephen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>King Stephen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4879,91 +4887,91 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Ravage - René Barjavel</t>
+          <t>Marche ou crève - King,Stephen</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45369</v>
+        <v>45410</v>
       </c>
       <c r="L42" t="n">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="M42" t="n">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="N42" t="n">
-        <v>0.9586158522328735</v>
+        <v>1.397971440010676</v>
       </c>
       <c r="O42" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="R42" t="n">
         <v>7</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>10.2</v>
+        <v>59.9</v>
       </c>
       <c r="U42" t="n">
-        <v>2566</v>
+        <v>17983</v>
       </c>
       <c r="V42" t="n">
-        <v>42.77</v>
+        <v>299.72</v>
       </c>
       <c r="W42" t="n">
+        <v>5</v>
+      </c>
+      <c r="X42" t="n">
         <v>0.71</v>
       </c>
-      <c r="X42" t="n">
-        <v>0.18</v>
-      </c>
       <c r="Y42" t="n">
-        <v>10.7</v>
+        <v>42.8</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>0:42:46</t>
+          <t>4:59:43</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>La cinquième saison</t>
+          <t>L'Enchanteur</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nora K. Jemisin</t>
+          <t>Barjavel, René</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nora Jemisin</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4978,106 +4986,102 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les livres de la terre fracturée </t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>La cinquième saison - Nora K. Jemisin</t>
+          <t>L'Enchanteur - Barjavel, René</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45363</v>
+        <v>45404</v>
       </c>
       <c r="L43" t="n">
-        <v>759</v>
+        <v>572</v>
       </c>
       <c r="M43" t="n">
-        <v>21</v>
+        <v>484</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7700770077007701</v>
+        <v>1.27890077949531</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>37.2</v>
       </c>
       <c r="U43" t="n">
-        <v>1636</v>
+        <v>22707</v>
       </c>
       <c r="V43" t="n">
-        <v>27.27</v>
+        <v>378.45</v>
       </c>
       <c r="W43" t="n">
-        <v>0.45</v>
+        <v>6.31</v>
       </c>
       <c r="X43" t="n">
-        <v>0.15</v>
+        <v>0.49</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.1</v>
+        <v>29.1</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:29</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>0:27:16</t>
+          <t>6:18:27</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1</t>
+          <t>Dans la toile du temps</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5087,101 +5091,97 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le troupeau aveugle </t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1 - John Brunner</t>
+          <t>Dans la toile du temps - Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45361</v>
+        <v>45390</v>
       </c>
       <c r="L44" t="n">
-        <v>382</v>
+        <v>888</v>
       </c>
       <c r="M44" t="n">
-        <v>13</v>
+        <v>870</v>
       </c>
       <c r="N44" t="n">
-        <v>1.27826941986234</v>
+        <v>1.400244640442928</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="T44" t="n">
-        <v>6.5</v>
+        <v>43.5</v>
       </c>
       <c r="U44" t="n">
-        <v>610</v>
+        <v>37279</v>
       </c>
       <c r="V44" t="n">
-        <v>10.17</v>
+        <v>621.3200000000001</v>
       </c>
       <c r="W44" t="n">
-        <v>0.17</v>
+        <v>10.36</v>
       </c>
       <c r="X44" t="n">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.1</v>
+        <v>31.1</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>0:10:10</t>
+          <t>10:21:19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne</t>
+          <t>la route</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>non-fiction/histoire</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5202,37 +5202,37 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne - George Orwell</t>
+          <t>la route - Cormac McCarthy</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45360</v>
+        <v>45370</v>
       </c>
       <c r="L45" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M45" t="n">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="N45" t="n">
-        <v>0.96</v>
+        <v>2.044083898169398</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="R45" t="n">
@@ -5242,580 +5242,588 @@
         <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
+        <v>191.5</v>
       </c>
       <c r="U45" t="n">
-        <v>750</v>
+        <v>11242</v>
       </c>
       <c r="V45" t="n">
-        <v>12.5</v>
+        <v>187.37</v>
       </c>
       <c r="W45" t="n">
-        <v>0.21</v>
+        <v>3.12</v>
       </c>
       <c r="X45" t="n">
-        <v>0.1</v>
+        <v>1.56</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.2</v>
+        <v>93.7</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>3:07:22</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>31</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ravage</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>René Barjavel</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>René Barjavel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Ravage - René Barjavel</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="L46" t="n">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>41</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9586158522328735</v>
+      </c>
+      <c r="O46" t="n">
+        <v>12</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>7</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2566</v>
+      </c>
+      <c r="V46" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>0:10</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>0:42:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>30</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>La cinquième saison</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Nora K. Jemisin</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Nora Jemisin</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les livres de la terre fracturée </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>La cinquième saison - Nora K. Jemisin</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="L47" t="n">
+        <v>759</v>
+      </c>
+      <c r="M47" t="n">
+        <v>21</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.7700770077007701</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>7</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1636</v>
+      </c>
+      <c r="V47" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>0:09</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>0:27:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>29</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Le troupeau aveugle, 1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>John Brunner</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>John Brunner</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le troupeau aveugle </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Le troupeau aveugle, 1 - John Brunner</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="L48" t="n">
+        <v>382</v>
+      </c>
+      <c r="M48" t="n">
+        <v>13</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.27826941986234</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>610</v>
+      </c>
+      <c r="V48" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>0:04</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>0:10:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>28</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hommage à la Catalogne</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>non-fiction/histoire</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Hommage à la Catalogne - George Orwell</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="L49" t="n">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>12</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="n">
+        <v>6</v>
+      </c>
+      <c r="U49" t="n">
+        <v>750</v>
+      </c>
+      <c r="V49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>0:12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>26</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Ursula K. le Guin
 Philippe R. Hupp
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Ursula Guin</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer - Ursula K. le Guin
 Philippe R. Hupp
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>1968</t>
         </is>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K50" s="2" t="n">
         <v>45358</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>337</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M50" t="n">
         <v>329</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N50" t="n">
         <v>1.185585585585586</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O50" t="n">
         <v>100</v>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="R46" t="n">
+      <c r="R50" t="n">
         <v>8</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S50" t="n">
         <v>8</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T50" t="n">
         <v>41.1</v>
       </c>
-      <c r="U46" t="n">
+      <c r="U50" t="n">
         <v>16650</v>
       </c>
-      <c r="V46" t="n">
+      <c r="V50" t="n">
         <v>277.5</v>
       </c>
-      <c r="W46" t="n">
+      <c r="W50" t="n">
         <v>4.62</v>
       </c>
-      <c r="X46" t="n">
+      <c r="X50" t="n">
         <v>0.58</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Y50" t="n">
         <v>34.7</v>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>0:34</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>4:37:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>25</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Le manuel de survie des parents</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>non-fiction/parenting</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Le manuel de survie des parents - Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="L47" t="n">
-        <v>476</v>
-      </c>
-      <c r="M47" t="n">
-        <v>417</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.721930875005162</v>
-      </c>
-      <c r="O47" t="n">
-        <v>88</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>2024-01-09</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
-        <v>53</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
-      <c r="T47" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="U47" t="n">
-        <v>14530</v>
-      </c>
-      <c r="V47" t="n">
-        <v>242.17</v>
-      </c>
-      <c r="W47" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>4:02:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>24</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Red Rising</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Pierce Brown</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Pierce Brown</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>fiction/SF</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Red Rising - Pierce Brown</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="L48" t="n">
-        <v>636</v>
-      </c>
-      <c r="M48" t="n">
-        <v>625</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.432730440364028</v>
-      </c>
-      <c r="O48" t="n">
-        <v>100</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
-        <v>8</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
-      <c r="T48" t="n">
-        <v>125</v>
-      </c>
-      <c r="U48" t="n">
-        <v>26174</v>
-      </c>
-      <c r="V48" t="n">
-        <v>436.23</v>
-      </c>
-      <c r="W48" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>1:27</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>7:16:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>19</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Il n'y a pas de parent parfait</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Isabelle Filliozat</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Isabelle Filliozat</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>non-fiction/parenting</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Il n'y a pas de parent parfait - Isabelle Filliozat</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="L49" t="n">
-        <v>445</v>
-      </c>
-      <c r="M49" t="n">
-        <v>277</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.306480520705594</v>
-      </c>
-      <c r="O49" t="n">
-        <v>62</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>2024-01-19</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>2024-02-25</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
-        <v>38</v>
-      </c>
-      <c r="S49" t="n">
-        <v>8</v>
-      </c>
-      <c r="T49" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="U49" t="n">
-        <v>12721</v>
-      </c>
-      <c r="V49" t="n">
-        <v>212.02</v>
-      </c>
-      <c r="W49" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>0:26</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>3:32:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>23</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Dan Simmons</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Dan Simmons</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>fiction/SF</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2 - Dan Simmons</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1332</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1127</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.411891458495152</v>
-      </c>
-      <c r="O50" t="n">
-        <v>85</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>2024-02-04</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>19</v>
-      </c>
-      <c r="S50" t="n">
-        <v>17</v>
-      </c>
-      <c r="T50" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="U50" t="n">
-        <v>47893</v>
-      </c>
-      <c r="V50" t="n">
-        <v>798.22</v>
-      </c>
-      <c r="W50" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0:46</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>13:18:13</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hypérion v1.1</t>
+          <t>Le manuel de survie des parents</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5825,116 +5833,112 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Cantos d'Hypérion </t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Hypérion v1.1 - Dan Simmons</t>
+          <t>Le manuel de survie des parents - Héloïse Junier</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>45319</v>
+        <v>45352</v>
       </c>
       <c r="L51" t="n">
-        <v>1034</v>
+        <v>476</v>
       </c>
       <c r="M51" t="n">
-        <v>1007</v>
+        <v>417</v>
       </c>
       <c r="N51" t="n">
-        <v>1.322303197426302</v>
+        <v>1.721930875005162</v>
       </c>
       <c r="O51" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="S51" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>62.9</v>
+        <v>104.2</v>
       </c>
       <c r="U51" t="n">
-        <v>45693</v>
+        <v>14530</v>
       </c>
       <c r="V51" t="n">
-        <v>761.55</v>
+        <v>242.17</v>
       </c>
       <c r="W51" t="n">
-        <v>12.69</v>
+        <v>4.04</v>
       </c>
       <c r="X51" t="n">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="Y51" t="n">
-        <v>47.6</v>
+        <v>60.5</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>0:47</t>
+          <t>1:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>12:41:33</t>
+          <t>4:02:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Your Brain’s Not Broken</t>
+          <t>Red Rising</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5945,91 +5949,91 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Your Brain’s Not Broken - Tamara Rosier</t>
+          <t>Red Rising - Pierce Brown</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="K52" s="2" t="n">
-        <v>45305</v>
+        <v>45351</v>
       </c>
       <c r="L52" t="n">
-        <v>299</v>
+        <v>636</v>
       </c>
       <c r="M52" t="n">
-        <v>263</v>
+        <v>625</v>
       </c>
       <c r="N52" t="n">
-        <v>0.9840972871842844</v>
+        <v>1.432730440364028</v>
       </c>
       <c r="O52" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T52" t="n">
-        <v>43.8</v>
+        <v>125</v>
       </c>
       <c r="U52" t="n">
-        <v>16035</v>
+        <v>26174</v>
       </c>
       <c r="V52" t="n">
-        <v>267.25</v>
+        <v>436.23</v>
       </c>
       <c r="W52" t="n">
-        <v>4.45</v>
+        <v>7.27</v>
       </c>
       <c r="X52" t="n">
-        <v>0.74</v>
+        <v>1.45</v>
       </c>
       <c r="Y52" t="n">
-        <v>44.5</v>
+        <v>87.2</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>0:44</t>
+          <t>1:27</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>4:27:15</t>
+          <t>7:16:14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+          <t>Il n'y a pas de parent parfait</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6050,96 +6054,96 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre? - Michaeleen Doucleff</t>
+          <t>Il n'y a pas de parent parfait - Isabelle Filliozat</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="K53" s="2" t="n">
-        <v>45300</v>
+        <v>45347</v>
       </c>
       <c r="L53" t="n">
-        <v>675</v>
+        <v>445</v>
       </c>
       <c r="M53" t="n">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N53" t="n">
-        <v>1.391107561235357</v>
+        <v>1.306480520705594</v>
       </c>
       <c r="O53" t="n">
         <v>62</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="S53" t="n">
         <v>8</v>
       </c>
       <c r="T53" t="n">
-        <v>52.2</v>
+        <v>34.6</v>
       </c>
       <c r="U53" t="n">
-        <v>18029</v>
+        <v>12721</v>
       </c>
       <c r="V53" t="n">
-        <v>300.48</v>
+        <v>212.02</v>
       </c>
       <c r="W53" t="n">
-        <v>5.01</v>
+        <v>3.53</v>
       </c>
       <c r="X53" t="n">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="Y53" t="n">
-        <v>37.6</v>
+        <v>26.5</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>5:00:29</t>
+          <t>3:32:01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6155,91 +6159,91 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>La nuit des temps - Barjavel,René</t>
+          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2 - Dan Simmons</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="K54" s="2" t="n">
-        <v>45299</v>
+        <v>45344</v>
       </c>
       <c r="L54" t="n">
-        <v>449</v>
+        <v>1332</v>
       </c>
       <c r="M54" t="n">
-        <v>289</v>
+        <v>1127</v>
       </c>
       <c r="N54" t="n">
-        <v>1.416666666666667</v>
+        <v>1.411891458495152</v>
       </c>
       <c r="O54" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T54" t="n">
-        <v>28.9</v>
+        <v>66.3</v>
       </c>
       <c r="U54" t="n">
-        <v>12240</v>
+        <v>47893</v>
       </c>
       <c r="V54" t="n">
-        <v>204</v>
+        <v>798.22</v>
       </c>
       <c r="W54" t="n">
-        <v>3.4</v>
+        <v>13.3</v>
       </c>
       <c r="X54" t="n">
-        <v>0.34</v>
+        <v>0.78</v>
       </c>
       <c r="Y54" t="n">
-        <v>20.4</v>
+        <v>47</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>0:20</t>
+          <t>0:46</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>3:24:00</t>
+          <t>13:18:13</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>Hypérion v1.1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Van Vogt</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6254,34 +6258,38 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t xml:space="preserve">Les Cantos d'Hypérion </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>La faune de l'espace - Van Vogt,Alfred E</t>
+          <t>Hypérion v1.1 - Dan Simmons</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>45299</v>
+        <v>45319</v>
       </c>
       <c r="L55" t="n">
-        <v>809</v>
+        <v>1034</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>1007</v>
       </c>
       <c r="N55" t="n">
-        <v>5.405405405405405</v>
+        <v>1.322303197426302</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -6290,61 +6298,61 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>62.9</v>
       </c>
       <c r="U55" t="n">
-        <v>22</v>
+        <v>45693</v>
       </c>
       <c r="V55" t="n">
-        <v>0.37</v>
+        <v>761.55</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01</v>
+        <v>12.69</v>
       </c>
       <c r="X55" t="n">
-        <v>0.01</v>
+        <v>0.79</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.4</v>
+        <v>47.6</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:47</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>12:41:33</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Let's Get Together</t>
+          <t>Your Brain’s Not Broken</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6354,7 +6362,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -6365,178 +6373,598 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Let's Get Together - Isaac Asimov</t>
+          <t>Your Brain’s Not Broken - Tamara Rosier</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>45257</v>
+        <v>45305</v>
       </c>
       <c r="L56" t="n">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="M56" t="n">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="N56" t="n">
-        <v>1.236476043276661</v>
+        <v>0.9840972871842844</v>
       </c>
       <c r="O56" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T56" t="n">
-        <v>8</v>
+        <v>43.8</v>
       </c>
       <c r="U56" t="n">
-        <v>388</v>
+        <v>16035</v>
       </c>
       <c r="V56" t="n">
-        <v>6.47</v>
+        <v>267.25</v>
       </c>
       <c r="W56" t="n">
-        <v>0.11</v>
+        <v>4.45</v>
       </c>
       <c r="X56" t="n">
-        <v>0.11</v>
+        <v>0.74</v>
       </c>
       <c r="Y56" t="n">
-        <v>6.5</v>
+        <v>44.5</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:44</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>4:27:15</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Michaeleen Doucleff</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Michaeleen Doucleff</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre? - Michaeleen Doucleff</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="L57" t="n">
+        <v>675</v>
+      </c>
+      <c r="M57" t="n">
+        <v>418</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.391107561235357</v>
+      </c>
+      <c r="O57" t="n">
+        <v>62</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>10</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8</v>
+      </c>
+      <c r="T57" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>18029</v>
+      </c>
+      <c r="V57" t="n">
+        <v>300.48</v>
+      </c>
+      <c r="W57" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>0:37</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>5:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>La nuit des temps</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Barjavel,René</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Barjavel René</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>und</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>La nuit des temps - Barjavel,René</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="L58" t="n">
+        <v>449</v>
+      </c>
+      <c r="M58" t="n">
+        <v>289</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="O58" t="n">
+        <v>64</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>45</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="U58" t="n">
+        <v>12240</v>
+      </c>
+      <c r="V58" t="n">
+        <v>204</v>
+      </c>
+      <c r="W58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>0:20</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>3:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>La faune de l'espace</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Van Vogt,Alfred E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Van Vogt</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>La faune de l'espace - Van Vogt,Alfred E</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="L59" t="n">
+        <v>809</v>
+      </c>
+      <c r="M59" t="n">
         <v>2</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="N59" t="n">
+        <v>5.405405405405405</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" t="n">
+        <v>22</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Let's Get Together</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Isaac Asimov</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Isaac Asimov</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Let's Get Together - Isaac Asimov</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="L60" t="n">
+        <v>68</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.236476043276661</v>
+      </c>
+      <c r="O60" t="n">
+        <v>12</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>8</v>
+      </c>
+      <c r="U60" t="n">
+        <v>388</v>
+      </c>
+      <c r="V60" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>0:06:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Le crime de l'Orient-Express</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Christie, Agatha</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Christie Agatha</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t xml:space="preserve">l'Orient </t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Le crime de l'Orient-Express - Christie, Agatha</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>1934</t>
         </is>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K61" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L61" t="n">
         <v>349</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M61" t="n">
         <v>330</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N61" t="n">
         <v>1.501023425062543</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O61" t="n">
         <v>100</v>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="R57" t="n">
+      <c r="R61" t="n">
         <v>7</v>
       </c>
-      <c r="S57" t="n">
+      <c r="S61" t="n">
         <v>7</v>
       </c>
-      <c r="T57" t="n">
+      <c r="T61" t="n">
         <v>47.1</v>
       </c>
-      <c r="U57" t="n">
+      <c r="U61" t="n">
         <v>13191</v>
       </c>
-      <c r="V57" t="n">
+      <c r="V61" t="n">
         <v>219.85</v>
       </c>
-      <c r="W57" t="n">
+      <c r="W61" t="n">
         <v>3.66</v>
       </c>
-      <c r="X57" t="n">
+      <c r="X61" t="n">
         <v>0.52</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Y61" t="n">
         <v>31.4</v>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>3:39:51</t>
         </is>
